--- a/pred_ohlcv/54_21/2019-10-16 ARN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-16 ARN ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>16894.94008096999</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>16894.94008096999</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>16894.94008096999</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1879633.03471903</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-940116.0739190301</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-941184.6057179101</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-958420.6057179101</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>3267.394282089896</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>3267.394282089896</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>3685.675095239896</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>7339.219594499897</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>8624.284394499897</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>12287.2879944999</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-16 ARN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-16 ARN ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>16894.94008096999</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>16894.94008096999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -964,7 +964,7 @@
         <v>1478114.24008097</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>267203.8512809699</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>267203.8512809699</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-181296.1487190301</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1879633.03471903</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-1879633.03471903</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-1879633.03471903</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-940116.0739190301</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-941184.6057179101</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-958420.6057179101</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>3267.394282089896</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>7971.169205679896</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>5928.209905679896</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>3685.675095239896</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>7339.219594499897</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>7976.887394499897</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>8758.284394499897</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>8624.284394499897</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>12287.2879944999</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
